--- a/Recycling/Met_rec_tech/metrec_tech_Avg_target_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_target_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.784399974295636E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.870134945295294E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.19552883243917E-06</v>
+      </c>
+      <c r="E7">
         <v>7.226734352835839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.528077516408922E-08</v>
-      </c>
-      <c r="F7">
-        <v>4.19552883243917E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>19.25847007445521</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>772.9870267261895</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>51.91747106326714</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>556871.5205526581</v>
+      </c>
+      <c r="E7">
         <v>1336152.607067982</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>97944.19532554173</v>
-      </c>
-      <c r="F7">
-        <v>556871.5205526581</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3560703.042588864</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>751.8842087537594</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.50010582483977</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>535796.2205262253</v>
+      </c>
+      <c r="E7">
         <v>1373354.020580092</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95270.28431028844</v>
-      </c>
-      <c r="F7">
-        <v>535796.2205262253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3659840.809922082</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.407723871561987E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.960436186437462E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.594154070402901E-05</v>
+      </c>
+      <c r="E7">
         <v>14.74435589275418</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.584970418529969E-07</v>
-      </c>
-      <c r="F7">
-        <v>5.594154070402901E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39.29212322801069</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.746385801400048E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.859544963207185E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0006237725819707033</v>
+      </c>
+      <c r="E7">
         <v>31.25279370672077</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.281171790579253E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0006237725819707033</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>83.28533511236928</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.16604517886295E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.469760705054545E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.004879943551481552</v>
+      </c>
+      <c r="E7">
         <v>55.65545350915536</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.545829626689941E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.004879943551481552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>148.3157998558093</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.245517996610662E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.851491035640508E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.035489596898837</v>
+      </c>
+      <c r="E7">
         <v>107.4055881515678</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0005379441433567968</v>
-      </c>
-      <c r="F7">
-        <v>0.035489596898837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>286.2243448085985</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.843386957655075E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.909753398073776E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.2135744075570983</v>
+      </c>
+      <c r="E7">
         <v>195.4142668023369</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.00360281916691618</v>
-      </c>
-      <c r="F7">
-        <v>0.2135744075570983</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>520.7580112388699</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001372818440781523</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.220499078264729E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.9391127702260715</v>
+      </c>
+      <c r="E7">
         <v>289.2683677961735</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01739480649240443</v>
-      </c>
-      <c r="F7">
-        <v>0.9391127702260715</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>770.8690997480836</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0006975658577830855</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.685182801781353E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.397051300453986</v>
+      </c>
+      <c r="E7">
         <v>496.7959020066499</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08838767568519242</v>
-      </c>
-      <c r="F7">
-        <v>4.397051300453986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1323.907666282581</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.003247341034976414</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0002181068095411488</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>19.05193269233036</v>
+      </c>
+      <c r="E7">
         <v>844.9769100047776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.411466420032222</v>
-      </c>
-      <c r="F7">
-        <v>19.05193269233036</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2251.77261822928</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01405442665342599</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0009439618827503564</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>77.39717857208002</v>
+      </c>
+      <c r="E7">
         <v>1423.156425136479</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.780818385997649</v>
-      </c>
-      <c r="F7">
-        <v>77.39717857208002</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3792.558863604064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.05060094762890437</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.003398599385844688</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>263.2821307687013</v>
+      </c>
+      <c r="E7">
         <v>2101.876638479271</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.411581212705754</v>
-      </c>
-      <c r="F7">
-        <v>263.2821307687013</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5601.275260168549</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1812961438057308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01217670798406563</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>894.389504565175</v>
+      </c>
+      <c r="E7">
         <v>3235.849101313763</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22.97180199243618</v>
-      </c>
-      <c r="F7">
-        <v>894.389504565175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8623.189955591753</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6112738338429311</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.04105604684554986</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2850.672558472982</v>
+      </c>
+      <c r="E7">
         <v>4905.754331605283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77.45372394265607</v>
-      </c>
-      <c r="F7">
-        <v>2850.672558472982</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13073.30785595787</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.631192878661496</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.109558642187295</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7061.394638291405</v>
+      </c>
+      <c r="E7">
         <v>6218.012532569882</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>206.6863587580587</v>
-      </c>
-      <c r="F7">
-        <v>7061.394638291405</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16570.33487526682</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.482854794697005</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3010897674055683</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>17116.18862995353</v>
+      </c>
+      <c r="E7">
         <v>8855.089023479248</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>568.016784819047</v>
-      </c>
-      <c r="F7">
-        <v>17116.18862995353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23597.8602006302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.924702195094305</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6665900218372899</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30246.74918773493</v>
+      </c>
+      <c r="E7">
         <v>11982.76713749446</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1257.546293449604</v>
-      </c>
-      <c r="F7">
-        <v>30246.74918773493</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31932.78610497787</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.68432788535579</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.053433771823436</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36047.50425497201</v>
+      </c>
+      <c r="E7">
         <v>15843.39855464975</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1987.341081853995</v>
-      </c>
-      <c r="F7">
-        <v>36047.50425497201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42220.95375937782</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.64221408545004</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9834404715731293</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34219.63044032263</v>
+      </c>
+      <c r="E7">
         <v>20491.00037267816</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1855.296178071196</v>
-      </c>
-      <c r="F7">
-        <v>34219.63044032263</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54606.31292168893</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.203451610950175</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.5509826774638519</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34134.8215933223</v>
+      </c>
+      <c r="E7">
         <v>25949.46086060936</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1039.448838267691</v>
-      </c>
-      <c r="F7">
-        <v>34134.8215933223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69152.52326054944</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.617398369179619</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4444558271580032</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36171.72307232078</v>
+      </c>
+      <c r="E7">
         <v>32204.93847298111</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>838.4820650391525</v>
-      </c>
-      <c r="F7">
-        <v>36171.72307232078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>85822.69854546385</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4.54087878775921E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0001210095376087441</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.95917930659721</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7360704059124661</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38450.19209892946</v>
+      </c>
+      <c r="E7">
         <v>39205.06140917672</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1388.623562233745</v>
-      </c>
-      <c r="F7">
-        <v>38450.19209892946</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>104477.2735584958</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.96869009071887</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.072532884820134</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40169.78959881386</v>
+      </c>
+      <c r="E7">
         <v>46867.36192972037</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2023.372252394131</v>
-      </c>
-      <c r="F7">
-        <v>40169.78959881386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>124896.480640387</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>22.46139370850203</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.508613621680975</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41939.12459931916</v>
+      </c>
+      <c r="E7">
         <v>55098.41004144499</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2846.054405320178</v>
-      </c>
-      <c r="F7">
-        <v>41939.12459931916</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>146831.3389043892</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>30.81668498116682</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.069794570229286</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45230.37263274509</v>
+      </c>
+      <c r="E7">
         <v>63826.98768236293</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3904.742652492473</v>
-      </c>
-      <c r="F7">
-        <v>45230.37263274509</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>170092.0598722511</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>36.32949981748538</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.440061333895298</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45486.78818357726</v>
+      </c>
+      <c r="E7">
         <v>73054.50735864096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4603.264353961069</v>
-      </c>
-      <c r="F7">
-        <v>45486.78818357726</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>194682.407721043</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>43.4765733682198</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.920092655803542</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44859.95778185703</v>
+      </c>
+      <c r="E7">
         <v>82923.70938790012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5508.86088230631</v>
-      </c>
-      <c r="F7">
-        <v>44859.95778185703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>220982.7700506279</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>68.6769618283703</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.612670142134887</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45763.15887351072</v>
+      </c>
+      <c r="E7">
         <v>93802.68641903078</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8701.969801707117</v>
-      </c>
-      <c r="F7">
-        <v>45763.15887351072</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>249974.074195148</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>110.8153275006998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.442882428765513</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45978.4462698257</v>
+      </c>
+      <c r="E7">
         <v>106374.934672026</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14041.26810220977</v>
-      </c>
-      <c r="F7">
-        <v>45978.4462698257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>283477.7640954027</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>158.7585945902261</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.66297939771589</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47820.88852141433</v>
+      </c>
+      <c r="E7">
         <v>121718.365497755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20116.09802044142</v>
-      </c>
-      <c r="F7">
-        <v>47820.88852141433</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>324366.3576107882</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>204.9961275243688</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.76851117916394</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49656.12647095561</v>
+      </c>
+      <c r="E7">
         <v>141348.201072128</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25974.79655029012</v>
-      </c>
-      <c r="F7">
-        <v>49656.12647095561</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>376677.7589323535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.002282792967984298</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.006083397827242795</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>197.4009605455578</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.25838377959663</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48695.39374991335</v>
+      </c>
+      <c r="E7">
         <v>167193.7201670409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25012.42267804882</v>
-      </c>
-      <c r="F7">
-        <v>48695.39374991335</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>445553.2885625275</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>175.4392630006738</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.78333211978316</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45047.05293925697</v>
+      </c>
+      <c r="E7">
         <v>201489.4409878631</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22229.68413309969</v>
-      </c>
-      <c r="F7">
-        <v>45047.05293925697</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>536947.6972764018</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>170.2222170434444</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.43293059536516</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41164.98755958056</v>
+      </c>
+      <c r="E7">
         <v>246577.6060817133</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21568.63892717775</v>
-      </c>
-      <c r="F7">
-        <v>41164.98755958056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>657102.8096379444</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>154.4678630622011</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.3747935391641</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43285.25000754681</v>
+      </c>
+      <c r="E7">
         <v>304636.3973621933</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19572.42492847476</v>
-      </c>
-      <c r="F7">
-        <v>43285.25000754681</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>811823.2462616323</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>135.0426699866624</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.07010553725938</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53647.84910846577</v>
+      </c>
+      <c r="E7">
         <v>377365.1497937063</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17111.0836134919</v>
-      </c>
-      <c r="F7">
-        <v>53647.84910846577</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1005637.552125127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>120.1640767104111</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.070788719287068</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78626.83494367498</v>
+      </c>
+      <c r="E7">
         <v>465666.109686013</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15225.83613115008</v>
-      </c>
-      <c r="F7">
-        <v>78626.83494367498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1240950.116639741</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>155.7822090987362</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.46307124624016</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>124847.1588723904</v>
+      </c>
+      <c r="E7">
         <v>569360.7198544305</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19738.96403000789</v>
-      </c>
-      <c r="F7">
-        <v>124847.1588723904</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1517285.104105709</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>241.9862459188512</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.25294278664631</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>187600.1004479086</v>
+      </c>
+      <c r="E7">
         <v>686969.2727516419</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30661.76703734776</v>
-      </c>
-      <c r="F7">
-        <v>187600.1004479086</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1830699.252998858</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>337.2423866425211</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.65079651333173</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>256695.9014398751</v>
+      </c>
+      <c r="E7">
         <v>815575.1183711772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42731.55052713104</v>
-      </c>
-      <c r="F7">
-        <v>256695.9014398751</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2173420.004632952</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>474.9174621429989</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.89770687701766</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>354890.3186249605</v>
+      </c>
+      <c r="E7">
         <v>950796.5976579486</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60176.18286900606</v>
-      </c>
-      <c r="F7">
-        <v>354890.3186249605</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2533770.708716319</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.02208448644607931</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.05885278198507921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>653.1790017061345</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.87059646244771</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>480164.7545394027</v>
+      </c>
+      <c r="E7">
         <v>1086899.384711999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82763.47404768216</v>
-      </c>
-      <c r="F7">
-        <v>480164.7545394027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2896470.003246473</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>742.1519701333777</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.8464425685566</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>543883.8785434393</v>
+      </c>
+      <c r="E7">
         <v>1217086.977021091</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94037.12482968686</v>
-      </c>
-      <c r="F7">
-        <v>543883.8785434393</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3243405.939748161</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>746.3110264438336</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.12578449563021</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>548039.6252630007</v>
+      </c>
+      <c r="E7">
         <v>1333993.237185227</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94564.11352361935</v>
-      </c>
-      <c r="F7">
-        <v>548039.6252630007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3554948.554014036</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>740.4337746447426</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.73104041887234</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>543295.7426049202</v>
+      </c>
+      <c r="E7">
         <v>1430361.984109632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93819.41448174081</v>
-      </c>
-      <c r="F7">
-        <v>543295.7426049202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3811760.903568317</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>725.2447846995562</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.71087588998071</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>530631.4597041662</v>
+      </c>
+      <c r="E7">
         <v>1499842.877576031</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91894.83703535114</v>
-      </c>
-      <c r="F7">
-        <v>530631.4597041662</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3996920.014480422</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>702.4036112357265</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.17675446056698</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>511673.1457131552</v>
+      </c>
+      <c r="E7">
         <v>1537780.47925404</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89000.66122404303</v>
-      </c>
-      <c r="F7">
-        <v>511673.1457131552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4098019.644125151</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>687.9938671890644</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.20892777822259</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>497226.5859056783</v>
+      </c>
+      <c r="E7">
         <v>1541847.909843378</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>87174.82102660171</v>
-      </c>
-      <c r="F7">
-        <v>497226.5859056783</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4108858.909339589</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>671.2415509226299</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.08376284668567</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>478364.4308441724</v>
+      </c>
+      <c r="E7">
         <v>1512394.271979677</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85052.15650595105</v>
-      </c>
-      <c r="F7">
-        <v>478364.4308441724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4030368.131114244</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>618.0096302122287</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.50845484335569</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>428951.4962819651</v>
+      </c>
+      <c r="E7">
         <v>1452436.844992717</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78307.20806652513</v>
-      </c>
-      <c r="F7">
-        <v>428951.4962819651</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3870588.034462899</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>494.9448523462326</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.24284129117834</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>323881.4734124836</v>
+      </c>
+      <c r="E7">
         <v>1367316.556516337</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62713.82781013028</v>
-      </c>
-      <c r="F7">
-        <v>323881.4734124836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3643751.617304701</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1049280353515915</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2796219329685254</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>327.185610215805</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.97533576034198</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>182600.4369534705</v>
+      </c>
+      <c r="E7">
         <v>1264113.893231815</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41457.26927708813</v>
-      </c>
-      <c r="F7">
-        <v>182600.4369534705</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3368727.615393085</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>255.90252648774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.18762612383448</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>109844.3931757079</v>
+      </c>
+      <c r="E7">
         <v>1150958.857510956</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32425.08111005227</v>
-      </c>
-      <c r="F7">
-        <v>109844.3931757079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3067181.610959019</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>264.1544773195719</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.74186623875803</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101764.5047076255</v>
+      </c>
+      <c r="E7">
         <v>1036347.397970039</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33470.67522243056</v>
-      </c>
-      <c r="F7">
-        <v>101764.5047076255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2761754.393630594</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>253.4000059959679</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.01954499087281</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94091.52356343954</v>
+      </c>
+      <c r="E7">
         <v>928514.4173015446</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32107.98994632292</v>
-      </c>
-      <c r="F7">
-        <v>94091.52356343954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2474391.093715108</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>220.2628139186938</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.79389416969905</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78821.6180262993</v>
+      </c>
+      <c r="E7">
         <v>834855.3804594548</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27909.2188141572</v>
-      </c>
-      <c r="F7">
-        <v>78821.6180262993</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2224799.830198152</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>180.6305938411429</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.13200649512345</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>61721.20776872117</v>
+      </c>
+      <c r="E7">
         <v>761379.8307091658</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22887.47100953912</v>
-      </c>
-      <c r="F7">
-        <v>61721.20776872117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2028995.389771362</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>156.4491286966048</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.50786472624269</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>61293.3453084706</v>
+      </c>
+      <c r="E7">
         <v>712228.9640698496</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19823.46855738234</v>
-      </c>
-      <c r="F7">
-        <v>61293.3453084706</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1898013.61458886</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>152.5214055207827</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.24406022852826</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81383.56940368535</v>
+      </c>
+      <c r="E7">
         <v>689353.8901042407</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19325.7917884116</v>
-      </c>
-      <c r="F7">
-        <v>81383.56940368535</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1837054.001863541</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>171.0672671662996</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.48968816539342</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117333.2826518004</v>
+      </c>
+      <c r="E7">
         <v>692468.5327214358</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21675.71414504181</v>
-      </c>
-      <c r="F7">
-        <v>117333.2826518004</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1845354.189570363</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>224.5427656961135</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.08135600912663</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>170008.23374919</v>
+      </c>
+      <c r="E7">
         <v>719328.1499234148</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28451.52601774237</v>
-      </c>
-      <c r="F7">
-        <v>170008.23374919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1916932.181626021</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.687684870439153E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.476823878433484E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.002442353974727E-10</v>
+      </c>
+      <c r="E7">
         <v>0.3701292316466419</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.672618229817701E-13</v>
-      </c>
-      <c r="F7">
-        <v>1.002442353974727E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.9863546082264406</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>312.6286513567821</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.99762143370788</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>237769.0610619869</v>
+      </c>
+      <c r="E7">
         <v>766267.9944360858</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39612.77567947559</v>
-      </c>
-      <c r="F7">
-        <v>237769.0610619869</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2042021.820557071</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>424.2845367881613</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.49695971559149</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>318134.2999981861</v>
+      </c>
+      <c r="E7">
         <v>828837.8705530071</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53760.54979963702</v>
-      </c>
-      <c r="F7">
-        <v>318134.2999981861</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2208763.813264642</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>548.6863889831864</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.85237751465353</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>406664.1673288831</v>
+      </c>
+      <c r="E7">
         <v>902351.1599164074</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69523.34903037333</v>
-      </c>
-      <c r="F7">
-        <v>406664.1673288831</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2404668.825702833</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>660.7101428381719</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.37642358279658</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>486060.2888687524</v>
+      </c>
+      <c r="E7">
         <v>982240.5494960728</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83717.73528694845</v>
-      </c>
-      <c r="F7">
-        <v>486060.2888687524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2617565.459696684</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>725.3343232522344</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.7168897234048</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>531986.4855993566</v>
+      </c>
+      <c r="E7">
         <v>1064224.685991204</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91906.1823505886</v>
-      </c>
-      <c r="F7">
-        <v>531986.4855993566</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2836044.369005417</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>740.6266238839556</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.74399308748158</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>542711.7715030321</v>
+      </c>
+      <c r="E7">
         <v>1144367.353220443</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93843.85016164332</v>
-      </c>
-      <c r="F7">
-        <v>542711.7715030321</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3049615.960704463</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>732.8531213305754</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.22188782578702</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>535982.8669947472</v>
+      </c>
+      <c r="E7">
         <v>1219116.703026928</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92858.87961734259</v>
-      </c>
-      <c r="F7">
-        <v>535982.8669947472</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3248814.941329547</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>717.8450324631372</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.21387347037125</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>522687.1784784323</v>
+      </c>
+      <c r="E7">
         <v>1285367.220557414</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90957.22391463164</v>
-      </c>
-      <c r="F7">
-        <v>522687.1784784323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3425365.447683413</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>700.4458933892762</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.04526485449482</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>506027.792500028</v>
+      </c>
+      <c r="E7">
         <v>1340540.708879573</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88752.60130516299</v>
-      </c>
-      <c r="F7">
-        <v>506027.792500028</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3572396.86213393</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>683.5704991577501</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.91183342368915</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>487300.406867114</v>
+      </c>
+      <c r="E7">
         <v>1382666.08625105</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86614.34173331951</v>
-      </c>
-      <c r="F7">
-        <v>487300.406867114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3684656.463756808</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.046522261996425E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.046188692851443E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.520844055587318E-09</v>
+      </c>
+      <c r="E7">
         <v>1.181992250171839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.8602093072163E-11</v>
-      </c>
-      <c r="F7">
-        <v>6.520844055587318E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.149882265872935</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>662.6101562105157</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.50403748298875</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>462100.844312998</v>
+      </c>
+      <c r="E7">
         <v>1410446.735667515</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83958.48354588126</v>
-      </c>
-      <c r="F7">
-        <v>462100.844312998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3758688.907640121</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>619.1552471795903</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.58539990672173</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416708.6908179031</v>
+      </c>
+      <c r="E7">
         <v>1423316.491609291</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78452.36772398373</v>
-      </c>
-      <c r="F7">
-        <v>416708.6908179031</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3792985.423544704</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>530.6916415067967</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.64376501652012</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>336097.7035914108</v>
+      </c>
+      <c r="E7">
         <v>1421486.674731133</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67243.25764368355</v>
-      </c>
-      <c r="F7">
-        <v>336097.7035914108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3788109.158295532</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>429.8476500528936</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.87060476001954</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>246050.8676083099</v>
+      </c>
+      <c r="E7">
         <v>1405977.904581076</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54465.44475049635</v>
-      </c>
-      <c r="F7">
-        <v>246050.8676083099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3746779.953257122</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>368.269553666528</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.7347280548046</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>187367.8427424136</v>
+      </c>
+      <c r="E7">
         <v>1378619.812734453</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46662.96308947149</v>
-      </c>
-      <c r="F7">
-        <v>187367.8427424136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3673873.579866542</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>342.6929685067641</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.0168834157385</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>161991.3115663408</v>
+      </c>
+      <c r="E7">
         <v>1341995.743317194</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43422.18676847948</v>
-      </c>
-      <c r="F7">
-        <v>161991.3115663408</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3576274.372473471</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>322.5787684279591</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.66591843903646</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>149690.9235139953</v>
+      </c>
+      <c r="E7">
         <v>1299311.564504874</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40873.54225929632</v>
-      </c>
-      <c r="F7">
-        <v>149690.9235139953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3462525.625089781</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>295.6038782358888</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.85415700894755</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139696.0816779396</v>
+      </c>
+      <c r="E7">
         <v>1254179.398544281</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37455.58850003739</v>
-      </c>
-      <c r="F7">
-        <v>139696.0816779396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3342253.255149082</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>269.6574691270216</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.11147324126451</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>135179.9464687744</v>
+      </c>
+      <c r="E7">
         <v>1210327.59133976</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34167.95226050253</v>
-      </c>
-      <c r="F7">
-        <v>135179.9464687744</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3225392.903636692</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>256.4123083020074</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.22186548578457</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>143380.4216052524</v>
+      </c>
+      <c r="E7">
         <v>1171272.13256668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32489.67491028909</v>
-      </c>
-      <c r="F7">
-        <v>143380.4216052524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3121314.305019003</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.229090497865451E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.255154116534694E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.216353930542862E-07</v>
+      </c>
+      <c r="E7">
         <v>3.271763896378647</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.557364815106313E-09</v>
-      </c>
-      <c r="F7">
-        <v>2.216353930542862E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8.718899023092742</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>264.1036099030343</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.73844974205776</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>168159.2403914295</v>
+      </c>
+      <c r="E7">
         <v>1140002.141262756</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33464.22987728399</v>
-      </c>
-      <c r="F7">
-        <v>168159.2403914295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3037983.14015907</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>299.9865324960724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.14851683371338</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>210591.8491457827</v>
+      </c>
+      <c r="E7">
         <v>1118733.577598461</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38010.90900356737</v>
-      </c>
-      <c r="F7">
-        <v>210591.8491457827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2981304.704664243</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>366.1771575689233</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.59419281929053</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>268711.5175886838</v>
+      </c>
+      <c r="E7">
         <v>1108768.402568263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46397.83826202108</v>
-      </c>
-      <c r="F7">
-        <v>268711.5175886838</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2954748.584605607</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>456.8053975949685</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.68121480851431</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>338190.0530928613</v>
+      </c>
+      <c r="E7">
         <v>1110468.271890015</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>57881.22638654818</v>
-      </c>
-      <c r="F7">
-        <v>338190.0530928613</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2959278.553588152</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>559.9740835362936</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.61051256099957</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>413035.487378215</v>
+      </c>
+      <c r="E7">
         <v>1123325.564318166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70953.59833839461</v>
-      </c>
-      <c r="F7">
-        <v>413035.487378215</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2993541.855568926</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>659.8082537042868</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.31584843548904</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>484230.3318100403</v>
+      </c>
+      <c r="E7">
         <v>1146100.407841237</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83603.45807085422</v>
-      </c>
-      <c r="F7">
-        <v>484230.3318100403</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3054234.364941068</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>739.6630095835999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.67927218554514</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>540817.7849859025</v>
+      </c>
+      <c r="E7">
         <v>1176992.22255467</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93721.75182882619</v>
-      </c>
-      <c r="F7">
-        <v>540817.7849859025</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3136557.729846658</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>785.9104657457965</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>52.78547045800472</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>573224.1655188941</v>
+      </c>
+      <c r="E7">
         <v>1213822.32419591</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>99581.70771818176</v>
-      </c>
-      <c r="F7">
-        <v>573224.1655188941</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3234705.99096527</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>798.650834511827</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.64117398714048</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>581214.3245110675</v>
+      </c>
+      <c r="E7">
         <v>1254213.027302536</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>101196.0235136544</v>
-      </c>
-      <c r="F7">
-        <v>581214.3245110675</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3342342.872174266</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>790.4662642707651</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.09145947193668</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>573179.5754179282</v>
+      </c>
+      <c r="E7">
         <v>1295754.435803299</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100158.9671095627</v>
-      </c>
-      <c r="F7">
-        <v>573179.5754179282</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3453046.259541579</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
